--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>578.0520936829273</v>
+        <v>0.03717220676888889</v>
       </c>
       <c r="R2">
-        <v>5202.468843146346</v>
+        <v>0.33454986092</v>
       </c>
       <c r="S2">
-        <v>0.171820018172854</v>
+        <v>0.000380417931251419</v>
       </c>
       <c r="T2">
-        <v>0.171820018172854</v>
+        <v>0.0003804179312514191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
-        <v>1996.279623363967</v>
+        <v>0.3488578686061111</v>
       </c>
       <c r="R3">
-        <v>17966.5166102757</v>
+        <v>3.139720817455</v>
       </c>
       <c r="S3">
-        <v>0.5933735123752315</v>
+        <v>0.003570188595501644</v>
       </c>
       <c r="T3">
-        <v>0.5933735123752314</v>
+        <v>0.003570188595501645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
-        <v>680.4564080317392</v>
+        <v>0.1189124857094445</v>
       </c>
       <c r="R4">
-        <v>6124.107672285653</v>
+        <v>1.070212371385</v>
       </c>
       <c r="S4">
-        <v>0.2022586435920412</v>
+        <v>0.0012169425962467</v>
       </c>
       <c r="T4">
-        <v>0.2022586435920412</v>
+        <v>0.0012169425962467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N5">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O5">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P5">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q5">
-        <v>15.76975289243889</v>
+        <v>5.802953687617778</v>
       </c>
       <c r="R5">
-        <v>141.92777603195</v>
+        <v>52.22658318856001</v>
       </c>
       <c r="S5">
-        <v>0.004687396271323797</v>
+        <v>0.05938704825130117</v>
       </c>
       <c r="T5">
-        <v>0.004687396271323796</v>
+        <v>0.05938704825130118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q6">
         <v>54.46020645663223</v>
@@ -818,10 +818,10 @@
         <v>490.1418581096901</v>
       </c>
       <c r="S6">
-        <v>0.01618773422903407</v>
+        <v>0.5573421886025002</v>
       </c>
       <c r="T6">
-        <v>0.01618773422903407</v>
+        <v>0.5573421886025003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N7">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q7">
         <v>18.56342970815889</v>
@@ -880,10 +880,10 @@
         <v>167.07086737343</v>
       </c>
       <c r="S7">
-        <v>0.005517787868364505</v>
+        <v>0.1899769247065346</v>
       </c>
       <c r="T7">
-        <v>0.005517787868364504</v>
+        <v>0.1899769247065346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N8">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O8">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P8">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q8">
-        <v>3.677553533689445</v>
+        <v>1.353266153584889</v>
       </c>
       <c r="R8">
-        <v>33.097981803205</v>
+        <v>12.179395382264</v>
       </c>
       <c r="S8">
-        <v>0.001093114828050014</v>
+        <v>0.0138492372481419</v>
       </c>
       <c r="T8">
-        <v>0.001093114828050014</v>
+        <v>0.0138492372481419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q9">
         <v>12.70028300799011</v>
@@ -1004,10 +1004,10 @@
         <v>114.302547071911</v>
       </c>
       <c r="S9">
-        <v>0.003775028031349383</v>
+        <v>0.1299738651042579</v>
       </c>
       <c r="T9">
-        <v>0.003775028031349382</v>
+        <v>0.1299738651042579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N10">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q10">
-        <v>4.329047321557444</v>
+        <v>4.329047321557445</v>
       </c>
       <c r="R10">
         <v>38.961425894017</v>
       </c>
       <c r="S10">
-        <v>0.001286764631751586</v>
+        <v>0.04430318696426441</v>
       </c>
       <c r="T10">
-        <v>0.001286764631751586</v>
+        <v>0.04430318696426442</v>
       </c>
     </row>
   </sheetData>
